--- a/Third_Match/3.MAL1-LP3 Stat 19.8.18.xlsx
+++ b/Third_Match/3.MAL1-LP3 Stat 19.8.18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,14 +14,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t xml:space="preserve">Player Name</t>
   </si>
@@ -53,46 +53,7 @@
     <t xml:space="preserve">Closeness Centrality</t>
   </si>
   <si>
-    <t xml:space="preserve">DLC25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deportivo La Coruña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP1</t>
+    <t xml:space="preserve">LP13</t>
   </si>
   <si>
     <t xml:space="preserve">Las Palmas</t>
@@ -101,31 +62,73 @@
     <t xml:space="preserve">LP23</t>
   </si>
   <si>
-    <t xml:space="preserve">LP17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP3</t>
+    <t xml:space="preserve">LP16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP21</t>
   </si>
   <si>
     <t xml:space="preserve">LP12</t>
   </si>
   <si>
-    <t xml:space="preserve">LP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP9</t>
+    <t xml:space="preserve">MAL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Málaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL20</t>
   </si>
   <si>
     <t xml:space="preserve">Betweenness Centrality</t>
@@ -152,10 +155,10 @@
     <t xml:space="preserve">%Accurate passes to box</t>
   </si>
   <si>
+    <t xml:space="preserve">LP</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP</t>
   </si>
 </sst>
 </file>
@@ -166,12 +169,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,6 +191,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -204,10 +212,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -265,12 +286,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,31 +307,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,26 +364,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="26" min="11" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="13.9030612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -385,28 +426,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.0215968511863958</v>
+        <v>0.0581791980695884</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.256324425860469</v>
+        <v>0.571980625483102</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.833333313465118</v>
+        <v>0.711111128330231</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0</v>
+        <v>0.0119408369408369</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.578947368421053</v>
+        <v>0.846153846153846</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -417,28 +458,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.0757103901763619</v>
+        <v>0.124458543945948</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.497364961075791</v>
+        <v>0.88956254571573</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.607142865657806</v>
+        <v>0.611111104488373</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.0343181818181818</v>
+        <v>0.0659848484848485</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.733333333333333</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -449,25 +490,25 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0814832996121498</v>
+        <v>0.0953142568433869</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.565481574037053</v>
+        <v>0.780423651591254</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.588888883590698</v>
+        <v>0.672727286815643</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.0925108225108225</v>
+        <v>0.0331926406926407</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0.916666666666667</v>
@@ -481,28 +522,28 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.131960166331768</v>
+        <v>0.0738077149500327</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1</v>
+        <v>0.843265096567234</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.590909063816071</v>
+        <v>0.736111104488373</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.0583441558441559</v>
+        <v>0.0271464646464646</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.733333333333333</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -516,89 +557,89 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.10477487333052</v>
+        <v>0.0879037147830362</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.748707165849302</v>
+        <v>0.944060699768139</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.611111104488373</v>
+        <v>0.75</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.075530303030303</v>
+        <v>0.0180772005772006</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.846153846153846</v>
+        <v>0.733333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.107959286464716</v>
+        <v>0.115108348654487</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.708629412178936</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.732142865657806</v>
+        <v>0.645454525947571</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.0125108225108225</v>
+        <v>0.0671681096681097</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.6875</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.113804186198036</v>
+        <v>0.0875327486209288</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.734309975942253</v>
+        <v>0.897551633256917</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.666666686534882</v>
+        <v>0.644444465637207</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.0481926406926407</v>
+        <v>0.0435606060606061</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.916666666666667</v>
+        <v>0.733333333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -609,28 +650,28 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0824667882468626</v>
+        <v>0.072564743822702</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.809918436986844</v>
+        <v>0.846465827441255</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.678571403026581</v>
+        <v>0.75</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>0.0131168831168831</v>
+        <v>0.015501443001443</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.647058823529412</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -641,25 +682,25 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>12</v>
-      </c>
       <c r="E10" s="5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06770758771834</v>
+        <v>0.0668971294305873</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.791143215047246</v>
+        <v>0.765772725260178</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.736111104488373</v>
+        <v>0.819444417953491</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0127380952380952</v>
+        <v>0.00829365079365079</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>0.647058823529412</v>
@@ -673,28 +714,28 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0795784913427912</v>
+        <v>0.0264112697621153</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.931158205447758</v>
+        <v>0.410134778222812</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.722222208976746</v>
+        <v>0.833333313465118</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.0377380952380952</v>
+        <v>0.00230880230880231</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.733333333333333</v>
+        <v>0.578947368421053</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -705,28 +746,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.111617671017671</v>
+        <v>0.130500415058206</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.776996420168832</v>
+        <v>0.975046240664324</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.678571403026581</v>
+        <v>0.645454525947571</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.0570454545454546</v>
+        <v>0.0723953823953824</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -737,28 +778,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0213404083743885</v>
+        <v>0.0613219160589813</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.291659440705316</v>
+        <v>0.680869237183345</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.696428596973419</v>
+        <v>0.839285731315613</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.00340909090909091</v>
+        <v>0.00715728715728716</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.6875</v>
+        <v>0.733333333333333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -769,28 +810,28 @@
         <v>24</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0439125716228337</v>
+        <v>0.0296611256629622</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.516834715421784</v>
+        <v>0.268471288482926</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.928571403026581</v>
+        <v>0.666666686534882</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.00282186948853616</v>
+        <v>0.00503246753246753</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.714285714285714</v>
+        <v>0.647058823529412</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -801,28 +842,28 @@
         <v>24</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0955572852204458</v>
+        <v>0.0718356308150483</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.924270103722648</v>
+        <v>0.761086885995798</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.819444417953491</v>
+        <v>0.652777791023254</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.0168518518518519</v>
+        <v>0.0496428571428572</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -833,28 +874,28 @@
         <v>24</v>
       </c>
       <c r="C16" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>117</v>
-      </c>
       <c r="F16" s="5" t="n">
-        <v>0.106199856037821</v>
+        <v>0.0740276566067387</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.909729989375998</v>
+        <v>0.586141480243876</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.822222232818604</v>
+        <v>0.680555582046509</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.0214197530864197</v>
+        <v>0.027965367965368</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -865,28 +906,28 @@
         <v>24</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.112597418447244</v>
+        <v>0.115710412901716</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.909729989375998</v>
+        <v>0.876141122706422</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.811111092567444</v>
+        <v>0.638888895511627</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.0248589065255732</v>
+        <v>0.0404761904761905</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1</v>
+        <v>0.733333333333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -897,28 +938,28 @@
         <v>24</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.113993944256721</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0.716131731001837</v>
+        <v>0.120609331652727</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.863200375802839</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.819444417953491</v>
+        <v>0.663636386394501</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0.0174074074074074</v>
+        <v>0.0404112554112554</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -929,28 +970,28 @@
         <v>24</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.097053371537449</v>
+        <v>36</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.0734960134771765</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0.0398589065255732</v>
+        <v>0.683247187733045</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.688888907432556</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.0273051948051948</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>1</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -961,28 +1002,28 @@
         <v>24</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0823752551832065</v>
+        <v>0.119221836259593</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.909729989375998</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.822222232818604</v>
+        <v>0.688888907432556</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.0148589065255732</v>
+        <v>0.0550541125541126</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -996,25 +1037,25 @@
         <v>36</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0883313896177773</v>
+        <v>0.124083253086435</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.845501720706916</v>
+        <v>0.90386058736598</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.833333313465118</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.0268959435626102</v>
+        <v>0.0418722943722944</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1025,60 +1066,60 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.104808722550217</v>
+        <v>0.0580818553252921</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.945150228496943</v>
+        <v>0.838719493179431</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.888888895511627</v>
+        <v>0.785714268684387</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.0155070546737213</v>
+        <v>0.0123051948051948</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.833333333333333</v>
+        <v>0.647058823529412</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0845157885218358</v>
+        <v>0.0404640478115452</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.945150228496943</v>
+        <v>0.717335920338417</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.875</v>
+        <v>0.821428596973419</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.0168959435626102</v>
+        <v>0.00685064935064935</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.647058823529412</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1092,34 +1133,1041 @@
         <v>29</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.0706543970044482</v>
+        <v>0.0956193826280797</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.855941783094063</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>0.944444417953491</v>
+        <v>0.716945632586193</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.663636386394501</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.00262345679012346</v>
+        <v>0.0659415584415584</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
+        <v>0.916666666666667</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0.0771894537726853</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0.762180000603845</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0.833333313465118</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0.00896103896103896</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1131,105 +2179,148 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.6785714285714"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="19.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="23.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="6" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="L1" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>0.503155810907359</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>0.0450924832743015</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.480263157894737</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.618421052631579</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>0.539473684210526</v>
+      </c>
+      <c r="H2" s="12" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="I2" s="12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>325</v>
+      </c>
+      <c r="K2" s="14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L2" s="14" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>0.304197504689949</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>0.503155810907359</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="C3" s="0" t="n">
+        <v>0.0372255017709563</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>0.682</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>0.525773195876289</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>0.484536082474227</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>0.608247422680412</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <v>319</v>
+      </c>
+      <c r="K3" s="14" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="L3" s="14" t="n">
+        <v>0.43</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Third_Match/3.MAL1-LP3 Stat 19.8.18.xlsx
+++ b/Third_Match/3.MAL1-LP3 Stat 19.8.18.xlsx
@@ -169,11 +169,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,12 +190,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -286,12 +281,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,19 +298,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,31 +322,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,8 +357,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -579,7 +570,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -949,7 +940,7 @@
       <c r="F18" s="5" t="n">
         <v>0.120609331652727</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="1" t="n">
         <v>0.863200375802839</v>
       </c>
       <c r="H18" s="5" t="n">
@@ -978,7 +969,7 @@
       <c r="E19" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.0734960134771765</v>
       </c>
       <c r="G19" s="5" t="n">
@@ -2180,104 +2171,104 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="C29:D39 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="19.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="23.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="6" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="10" t="n">
         <v>0.503155810907359</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="11" t="n">
         <v>0.0450924832743015</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.689</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0.480263157894737</v>
-      </c>
-      <c r="F2" s="6" t="n">
+      <c r="E2" s="1" t="n">
+        <v>0.960526315789474</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>0.618421052631579</v>
       </c>
-      <c r="G2" s="12" t="n">
+      <c r="G2" s="11" t="n">
         <v>0.539473684210526</v>
       </c>
-      <c r="H2" s="12" t="n">
+      <c r="H2" s="11" t="n">
         <v>0.722</v>
       </c>
-      <c r="I2" s="12" t="n">
+      <c r="I2" s="11" t="n">
         <v>1.6</v>
       </c>
-      <c r="J2" s="13" t="n">
+      <c r="J2" s="12" t="n">
         <v>325</v>
       </c>
-      <c r="K2" s="14" t="n">
+      <c r="K2" s="13" t="n">
         <v>0.83</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="13" t="n">
         <v>0.62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -2286,38 +2277,38 @@
       <c r="C3" s="0" t="n">
         <v>0.0372255017709563</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.682</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0.525773195876289</v>
-      </c>
-      <c r="F3" s="12" t="n">
+      <c r="E3" s="11" t="n">
+        <v>1.05154639175258</v>
+      </c>
+      <c r="F3" s="11" t="n">
         <v>0.484536082474227</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="11" t="n">
         <v>0.608247422680412</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="11" t="n">
         <v>0.707</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="11" t="n">
         <v>1.13</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="12" t="n">
         <v>319</v>
       </c>
-      <c r="K3" s="14" t="n">
+      <c r="K3" s="13" t="n">
         <v>0.81</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="13" t="n">
         <v>0.43</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
